--- a/Lab Spreadsheet.xlsx
+++ b/Lab Spreadsheet.xlsx
@@ -1,13 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jon/Documents/_Education/Certifications/chef-infra-foundations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DBC103-8C53-3B40-8690-9DAF55735817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="24300" yWindow="4220" windowWidth="26900" windowHeight="23060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgiCIZNTVE+mfv62OnHwDZU9d8lXg=="/>
     </ext>
@@ -273,41 +292,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -333,77 +353,90 @@
         <bgColor rgb="FF1155CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -593,34 +626,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.13"/>
-    <col customWidth="1" min="2" max="2" width="23.38"/>
-    <col customWidth="1" min="3" max="3" width="19.88"/>
-    <col customWidth="1" min="4" max="4" width="21.0"/>
-    <col customWidth="1" min="5" max="5" width="22.25"/>
-    <col customWidth="1" min="6" max="6" width="19.88"/>
-    <col customWidth="1" min="7" max="7" width="17.63"/>
-    <col customWidth="1" min="8" max="8" width="23.25"/>
-    <col customWidth="1" min="9" max="9" width="21.75"/>
-    <col customWidth="1" min="10" max="10" width="23.88"/>
-    <col customWidth="1" min="11" max="12" width="23.25"/>
-    <col customWidth="1" min="13" max="26" width="14.38"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" customWidth="1"/>
+    <col min="11" max="12" width="23.1640625" customWidth="1"/>
+    <col min="13" max="26" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,9 +688,9 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -670,7 +708,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G12" si="1">B2</f>
+        <f t="shared" ref="G2:G12" si="0">B2</f>
         <v>Developer B</v>
       </c>
       <c r="H2" s="2"/>
@@ -679,9 +717,9 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -699,7 +737,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Bill Day</v>
       </c>
       <c r="H3" s="5"/>
@@ -708,9 +746,9 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A20" si="2">A3+1</f>
+        <f t="shared" ref="A4:A20" si="1">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -729,7 +767,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Nicholas Leppert</v>
       </c>
       <c r="H4" s="2"/>
@@ -738,9 +776,9 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -759,7 +797,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Andy Maney</v>
       </c>
       <c r="H5" s="5"/>
@@ -768,9 +806,9 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -789,7 +827,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Mike McMillan</v>
       </c>
       <c r="H6" s="2"/>
@@ -798,39 +836,39 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" ht="21.0" customHeight="1">
-      <c r="A7" s="5">
-        <f t="shared" si="2"/>
+    <row r="7" spans="1:12" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="G7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Jon Metzger</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:12" ht="21.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <f t="shared" si="1"/>
-        <v>Jon Metzger</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" ht="21.75" customHeight="1" outlineLevel="1">
-      <c r="A8" s="2">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -849,7 +887,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Gavin Montague</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -860,9 +898,9 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" ht="18.0" customHeight="1">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -881,7 +919,7 @@
         <v>47</v>
       </c>
       <c r="G9" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Barry Schmerhold</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -892,9 +930,9 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -913,7 +951,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Pavitra Vasudevan</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -924,9 +962,9 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -945,7 +983,7 @@
         <v>57</v>
       </c>
       <c r="G11" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Chris Chapman</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -956,9 +994,9 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -977,7 +1015,7 @@
         <v>62</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Extra</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -988,9 +1026,9 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1020,9 +1058,9 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
@@ -1030,9 +1068,9 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2" t="str">
+      <c r="G14" s="2">
         <f>B14</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>6</v>
@@ -1042,9 +1080,9 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="5"/>
@@ -1061,9 +1099,9 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C16" s="2"/>
@@ -1085,9 +1123,9 @@
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" collapsed="1">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1106,8 +1144,8 @@
         <v>6</v>
       </c>
       <c r="G17" s="5" t="str">
-        <f t="shared" ref="G17:G20" si="3">B17</f>
-        <v> </v>
+        <f t="shared" ref="G17:G20" si="2">B17</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H17" s="5" t="s">
         <v>6</v>
@@ -1123,9 +1161,9 @@
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="18" spans="1:12" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1144,8 +1182,8 @@
         <v>6</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H18" s="3" t="s">
         <v>6</v>
@@ -1157,9 +1195,9 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="19" spans="1:12" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1178,8 +1216,8 @@
         <v>6</v>
       </c>
       <c r="G19" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1187,9 +1225,9 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="20" spans="1:12" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1208,8 +1246,8 @@
         <v>6</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v> </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1217,57 +1255,57 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" ht="18.75" customHeight="1">
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="str">
-        <f t="shared" ref="A21:L21" si="4">A1</f>
+        <f t="shared" ref="A21:L21" si="3">A1</f>
         <v>Number</v>
       </c>
       <c r="B21" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Name</v>
       </c>
       <c r="C21" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Windows W/S</v>
       </c>
       <c r="D21" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Apache Web</v>
       </c>
       <c r="E21" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Windows Web</v>
       </c>
       <c r="F21" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Centos LB</v>
       </c>
       <c r="G21" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v> </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H21" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Apache Web B</v>
       </c>
-      <c r="I21" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J21" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K21" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L21" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+      <c r="I21" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
@@ -1285,7 +1323,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" ht="18.0" customHeight="1">
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -1293,9 +1331,10 @@
       <c r="C23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="19" t="s">
         <v>6</v>
       </c>
+      <c r="E23" s="16"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1304,7 +1343,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
@@ -1312,15 +1351,16 @@
       <c r="C24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="19" t="s">
         <v>6</v>
       </c>
+      <c r="E24" s="16"/>
       <c r="F24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1334,43 +1374,47 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="20" t="s">
         <v>6</v>
       </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1384,13 +1428,17 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="21" t="s">
         <v>76</v>
       </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1398,11 +1446,13 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1412,16 +1462,19 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="16"/>
+      <c r="E31" s="18" t="s">
         <v>80</v>
       </c>
+      <c r="F31" s="16"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1429,13 +1482,15 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="17" t="s">
         <v>82</v>
       </c>
+      <c r="D32" s="16"/>
       <c r="E32" s="2" t="s">
         <v>83</v>
       </c>
@@ -1447,7 +1502,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1461,7 +1516,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1475,7 +1530,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1489,7 +1544,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1503,7 +1558,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1517,7 +1572,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1531,7 +1586,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1545,7 +1600,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1559,7 +1614,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1573,7 +1628,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1587,7 +1642,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1601,7 +1656,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1615,7 +1670,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1629,7 +1684,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1643,7 +1698,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1657,7 +1712,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1671,7 +1726,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1685,7 +1740,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1699,7 +1754,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1713,7 +1768,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1727,7 +1782,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1741,7 +1796,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1755,7 +1810,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1769,7 +1824,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1783,7 +1838,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1797,7 +1852,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1811,7 +1866,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1825,7 +1880,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1839,7 +1894,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1853,7 +1908,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1867,7 +1922,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1881,7 +1936,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1895,7 +1950,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1909,7 +1964,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1923,7 +1978,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1937,7 +1992,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1951,7 +2006,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1965,7 +2020,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1979,7 +2034,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1993,7 +2048,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2007,7 +2062,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2021,7 +2076,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2035,7 +2090,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2049,7 +2104,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2063,7 +2118,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2077,7 +2132,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2091,7 +2146,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2105,7 +2160,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2119,7 +2174,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2133,7 +2188,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2147,7 +2202,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2161,7 +2216,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2175,7 +2230,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2189,7 +2244,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2203,7 +2258,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2217,7 +2272,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2231,7 +2286,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2245,7 +2300,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2259,7 +2314,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2273,7 +2328,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2287,7 +2342,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2301,7 +2356,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2315,7 +2370,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2329,7 +2384,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2343,7 +2398,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2357,7 +2412,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2371,7 +2426,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2385,7 +2440,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2399,7 +2454,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2413,7 +2468,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2427,7 +2482,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2441,7 +2496,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2455,7 +2510,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2469,7 +2524,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2483,7 +2538,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2497,7 +2552,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2511,7 +2566,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2525,7 +2580,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2539,7 +2594,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2553,7 +2608,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2567,7 +2622,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2581,7 +2636,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2595,7 +2650,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2609,7 +2664,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2623,7 +2678,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2637,7 +2692,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2651,7 +2706,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2665,7 +2720,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2679,7 +2734,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2693,7 +2748,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2707,7 +2762,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2721,7 +2776,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2735,7 +2790,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2749,7 +2804,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2763,7 +2818,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2777,7 +2832,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2791,7 +2846,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2805,7 +2860,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2819,7 +2874,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2833,7 +2888,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2847,7 +2902,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2861,7 +2916,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2875,7 +2930,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2889,7 +2944,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2903,7 +2958,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2917,7 +2972,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2931,7 +2986,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2945,7 +3000,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2959,7 +3014,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2973,7 +3028,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2987,7 +3042,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3001,7 +3056,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3015,7 +3070,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3029,7 +3084,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3043,7 +3098,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3057,7 +3112,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3071,7 +3126,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3085,7 +3140,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3099,7 +3154,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3113,7 +3168,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3127,7 +3182,7 @@
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3141,7 +3196,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3155,7 +3210,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3169,7 +3224,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3183,7 +3238,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3197,7 +3252,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3211,7 +3266,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -3225,7 +3280,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -3239,7 +3294,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -3253,7 +3308,7 @@
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -3267,7 +3322,7 @@
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3281,7 +3336,7 @@
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -3295,7 +3350,7 @@
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3309,7 +3364,7 @@
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -3323,7 +3378,7 @@
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -3337,7 +3392,7 @@
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3351,7 +3406,7 @@
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3365,7 +3420,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -3379,7 +3434,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -3393,7 +3448,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -3407,7 +3462,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -3421,7 +3476,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -3435,7 +3490,7 @@
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3449,7 +3504,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -3463,7 +3518,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -3477,7 +3532,7 @@
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -3491,7 +3546,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -3505,7 +3560,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -3519,7 +3574,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -3533,7 +3588,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -3547,7 +3602,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3561,7 +3616,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -3575,7 +3630,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -3589,7 +3644,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -3603,7 +3658,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -3617,7 +3672,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -3631,7 +3686,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -3645,7 +3700,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -3659,7 +3714,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -3673,7 +3728,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3687,7 +3742,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3701,7 +3756,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3715,7 +3770,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3729,7 +3784,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3743,7 +3798,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3757,7 +3812,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3771,7 +3826,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3785,7 +3840,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3799,7 +3854,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3813,7 +3868,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3827,7 +3882,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3841,7 +3896,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3855,7 +3910,7 @@
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3869,7 +3924,7 @@
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3883,7 +3938,7 @@
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3897,7 +3952,7 @@
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3911,7 +3966,7 @@
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3925,7 +3980,7 @@
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3939,7 +3994,7 @@
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3953,7 +4008,7 @@
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3967,7 +4022,7 @@
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3981,7 +4036,7 @@
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3995,7 +4050,7 @@
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -4009,7 +4064,7 @@
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -4023,7 +4078,7 @@
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -4037,7 +4092,7 @@
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -4051,7 +4106,7 @@
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -4065,7 +4120,7 @@
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -4079,7 +4134,7 @@
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -4093,7 +4148,7 @@
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -4107,7 +4162,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -4121,7 +4176,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -4135,7 +4190,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -4149,7 +4204,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -4163,7 +4218,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -4177,7 +4232,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -4191,7 +4246,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -4205,7 +4260,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -4219,7 +4274,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -4233,7 +4288,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -4247,792 +4302,793 @@
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="233" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C29"/>
+    <hyperlink ref="C29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>